--- a/Final equation.xlsx
+++ b/Final equation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>A</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Yield(ft)</t>
+  </si>
+  <si>
+    <t>Final Testing</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
@@ -86,11 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180727FD-98B3-41AF-A82E-29CF34691F9E}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +480,7 @@
         <v>4.4719166666666661</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B11" si="1">(C4*-17.9)-(D4*12.85)+(E4*11.4)-(17.9*F4)+G4</f>
+        <f t="shared" ref="B4:B10" si="1">(C4*-17.9)-(D4*12.85)+(E4*11.4)-(17.9*F4)+G4</f>
         <v>53.662999999999997</v>
       </c>
       <c r="C4">
@@ -884,7 +894,133 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f>AVERAGE(B22:B31)</f>
+        <v>67.8</v>
+      </c>
+      <c r="C32">
+        <f>B32*0.5</f>
+        <v>33.9</v>
+      </c>
+      <c r="D32">
+        <f>B32*0.25</f>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>